--- a/mario.xlsx
+++ b/mario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrghx4/Dropbox/CS3100/2020  Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cs3100Mario\cs3100Mario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E24CF-F265-1E46-9239-603ACC6B855A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5F264-0A2C-421E-8F74-23B1AF45BB5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="7600" windowWidth="27240" windowHeight="13060" xr2:uid="{018AF364-4D8B-D046-BADE-3AB608BA43C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{018AF364-4D8B-D046-BADE-3AB608BA43C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,12 +433,12 @@
   <dimension ref="A1:HN16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="HQ8" sqref="HQ8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:222" x14ac:dyDescent="0.25">
       <c r="GW1" t="s">
         <v>5</v>
       </c>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:222" x14ac:dyDescent="0.25">
       <c r="GW2" t="s">
         <v>5</v>
       </c>
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:222" x14ac:dyDescent="0.25">
       <c r="GW3" t="s">
         <v>5</v>
       </c>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:222" x14ac:dyDescent="0.25">
       <c r="GW4" t="s">
         <v>5</v>
       </c>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:222" x14ac:dyDescent="0.25">
       <c r="GL5" t="s">
         <v>14</v>
       </c>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:222" x14ac:dyDescent="0.25">
       <c r="CB6">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:222" x14ac:dyDescent="0.25">
       <c r="W7" t="s">
         <v>10</v>
       </c>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:222" x14ac:dyDescent="0.25">
       <c r="FZ8" t="s">
         <v>1</v>
       </c>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:222" x14ac:dyDescent="0.25">
       <c r="FY9" t="s">
         <v>1</v>
       </c>
@@ -717,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:222" x14ac:dyDescent="0.25">
       <c r="BL10" t="s">
         <v>11</v>
       </c>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:222" x14ac:dyDescent="0.25">
       <c r="Q11" t="s">
         <v>10</v>
       </c>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:222" x14ac:dyDescent="0.25">
       <c r="AM12" t="s">
         <v>9</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:222" x14ac:dyDescent="0.25">
       <c r="AC13" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:222" x14ac:dyDescent="0.25">
       <c r="V14">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:222" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/mario.xlsx
+++ b/mario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cs3100Mario\cs3100Mario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrghx4/Dropbox/CS3100/2020  Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5F264-0A2C-421E-8F74-23B1AF45BB5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E24CF-F265-1E46-9239-603ACC6B855A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{018AF364-4D8B-D046-BADE-3AB608BA43C6}"/>
+    <workbookView xWindow="20" yWindow="7600" windowWidth="27240" windowHeight="13060" xr2:uid="{018AF364-4D8B-D046-BADE-3AB608BA43C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,12 +433,12 @@
   <dimension ref="A1:HN16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="HQ8" sqref="HQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:222" x14ac:dyDescent="0.2">
       <c r="GW1" t="s">
         <v>5</v>
       </c>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:222" x14ac:dyDescent="0.2">
       <c r="GW2" t="s">
         <v>5</v>
       </c>
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:222" x14ac:dyDescent="0.2">
       <c r="GW3" t="s">
         <v>5</v>
       </c>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:222" x14ac:dyDescent="0.2">
       <c r="GW4" t="s">
         <v>5</v>
       </c>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:222" x14ac:dyDescent="0.2">
       <c r="GL5" t="s">
         <v>14</v>
       </c>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:222" x14ac:dyDescent="0.2">
       <c r="CB6">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:222" x14ac:dyDescent="0.2">
       <c r="W7" t="s">
         <v>10</v>
       </c>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:222" x14ac:dyDescent="0.2">
       <c r="FZ8" t="s">
         <v>1</v>
       </c>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:222" x14ac:dyDescent="0.2">
       <c r="FY9" t="s">
         <v>1</v>
       </c>
@@ -717,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:222" x14ac:dyDescent="0.2">
       <c r="BL10" t="s">
         <v>11</v>
       </c>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:222" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>10</v>
       </c>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:222" x14ac:dyDescent="0.2">
       <c r="AM12" t="s">
         <v>9</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:222" x14ac:dyDescent="0.2">
       <c r="AC13" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:222" x14ac:dyDescent="0.2">
       <c r="V14">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:222" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:222" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:222" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
